--- a/Documentation/Calculations/Motor Mount/Motor Mount Scoring Matrix.xlsx
+++ b/Documentation/Calculations/Motor Mount/Motor Mount Scoring Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu.sharepoint.com/sites/Course_43019_design_in_mechanical_and_mechatronic_-4fVJuN6RM5oxU-P29-AutonomousSteeri/Shared Documents/T21 - P29 - Autonomous Steering Mechanism/Week 10/Mount Design &amp; Calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu.sharepoint.com/sites/Course_43019_design_in_mechanical_and_mechatronic_-4fVJuN6RM5oxU-P29-AutonomousSteeri/Shared Documents/T21 - P29 - Autonomous Steering Mechanism/Handover/Documentation/Calculations/Motor Mount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{7BF58C14-107B-42EB-A639-6AA8CEDCFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944E2269-B514-4FDA-95B1-1AC85D6009D3}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{7BF58C14-107B-42EB-A639-6AA8CEDCFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D19F9B-D136-4B5C-9297-91BE6D1B784D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MM Morph Table" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <t>Option 1</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Adjustable Angle Mount Mechanism</t>
   </si>
   <si>
-    <t>Adjustable Angle Motor Mechanism</t>
-  </si>
-  <si>
     <t>Motor Mount Morph Table</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Behind front of steering shaft</t>
   </si>
   <si>
-    <t>Angle Base Plate (Fixed)</t>
-  </si>
-  <si>
     <t>In-front of steering shaft
  (partial hole in floor)</t>
   </si>
@@ -219,7 +213,31 @@
     <t>Side Dual Adjustable bolt</t>
   </si>
   <si>
-    <t>Back</t>
+    <t>Motor Mount Enclosure Plate design</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angle Motor Mechanism</t>
+  </si>
+  <si>
+    <t>Angle Base Plate (Fixed) with wedges and plate</t>
+  </si>
+  <si>
+    <t>One piece wedge motor mount</t>
+  </si>
+  <si>
+    <t>3 plate bent plate design</t>
+  </si>
+  <si>
+    <t>Single Adjustable Bolt - Back</t>
+  </si>
+  <si>
+    <t>Concaved billet plate</t>
+  </si>
+  <si>
+    <t>Concaved Bent Plate</t>
+  </si>
+  <si>
+    <t>Flat plate/sheet mounted on block spacer</t>
   </si>
 </sst>
 </file>
@@ -320,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -509,19 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -533,11 +538,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
         <color indexed="64"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -605,10 +612,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,8 +637,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -634,30 +655,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,6 +1169,338 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2180167</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1602030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C09202-DE93-62FE-1338-CDFDB89B6598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5270500" y="5355167"/>
+          <a:ext cx="1894417" cy="1559696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328083</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2656416</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1643683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9E7228-AE8C-80DD-718C-D2368088ECCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10805583" y="5429249"/>
+          <a:ext cx="2328333" cy="1527267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328084</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1687456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79598233-6E86-0427-56E5-61752DFE9A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8064501" y="5333999"/>
+          <a:ext cx="1703916" cy="1666290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>233245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1821392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Image preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4099782C-86E7-21DC-4CF6-16C58204853F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2296584" y="11958520"/>
+          <a:ext cx="2665941" cy="1588147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2605617</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1758302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Image preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48E2919-549C-4046-6652-94DB73BC837B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7895167" y="11803268"/>
+          <a:ext cx="2444750" cy="1680309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335306</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2468257</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Image preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408C991B-9EF7-E5B3-4B2D-BA6F4147EEA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5316881" y="11896725"/>
+          <a:ext cx="2132951" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1567,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FADF1E-88DA-413C-81FD-8E5D65A75C77}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1922,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1608,30 +1947,30 @@
     </row>
     <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="40" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1641,22 +1980,22 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>10</v>
@@ -1664,97 +2003,113 @@
       <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>36</v>
+      <c r="F7" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="36"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="35"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>31</v>
+      <c r="A9" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>35</v>
+      <c r="A11" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="30"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="167.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
+      <c r="B16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1797,54 +2152,54 @@
         <v>23</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="31" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2249,48 +2604,48 @@
         <v>30</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2521,48 +2876,48 @@
         <v>30</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2793,48 +3148,48 @@
         <v>30</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3048,15 +3403,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD9EDA646FF47745A6EE457436789FF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b76eae9aa6904517c9fa58b81db482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdbf55cf-10f0-49fa-a617-5a903818246b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007becb5391e6d00c76f4a70b2d80428" ns2:_="">
     <xsd:import namespace="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
@@ -3246,6 +3592,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3257,14 +3612,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBCBE5B4-52DA-4A93-98B9-8115F1527ED0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A40BFA1-6044-4E00-A37A-9E22D02FC6E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3282,6 +3629,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBCBE5B4-52DA-4A93-98B9-8115F1527ED0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAC4A9A2-0EAE-4BFA-957C-2AB380051AF6}">
   <ds:schemaRefs>
